--- a/wikipedia_validation_sheets/MERRF syndrome DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/MERRF syndrome DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E8345BAC-50ED-B541-B03A-24175A25F5BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274E6EFA-1402-4449-BEF6-64DE17A16FFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7540" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="127">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -66,9 +71,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>FN</t>
-  </si>
-  <si>
     <t>MERRF syndrome</t>
   </si>
   <si>
@@ -369,13 +371,46 @@
     <t>Disease of liver, NOS</t>
   </si>
   <si>
-    <t>DEMENTIA</t>
-  </si>
-  <si>
     <t>FPREAL</t>
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>dementia</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>dysfunction</t>
+  </si>
+  <si>
+    <t>Functional disorder</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>point, mutation</t>
+  </si>
+  <si>
+    <t>Point mutation</t>
+  </si>
+  <si>
+    <t>[comd]</t>
+  </si>
+  <si>
+    <t>multiple, lipomas, lipomata</t>
+  </si>
+  <si>
+    <t>Multiple lipomata</t>
+  </si>
+  <si>
+    <t>[neop]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,14 +479,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -707,56 +736,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -818,12 +802,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -870,7 +851,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1191,14 +1182,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
@@ -1208,43 +1200,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1277,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="11" t="b">
         <v>1</v>
@@ -1306,13 +1298,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="15" t="b">
         <v>1</v>
@@ -1335,13 +1327,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="15" t="b">
         <v>1</v>
@@ -1364,13 +1356,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="E8" s="15" t="b">
         <v>1</v>
@@ -1385,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1393,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="15" t="b">
         <v>1</v>
@@ -1414,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1422,13 +1414,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="E10" s="15" t="b">
         <v>1</v>
@@ -1443,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1451,13 +1443,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="15" t="b">
         <v>1</v>
@@ -1480,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="15" t="b">
         <v>1</v>
@@ -1501,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1509,13 +1501,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="15" t="b">
         <v>1</v>
@@ -1530,7 +1522,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1538,13 +1530,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="15" t="b">
         <v>1</v>
@@ -1559,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1567,13 +1559,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="15" t="b">
         <v>1</v>
@@ -1596,13 +1588,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="15" t="b">
         <v>1</v>
@@ -1617,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1625,13 +1617,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="15" t="b">
         <v>1</v>
@@ -1646,7 +1638,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1654,13 +1646,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="15" t="b">
         <v>1</v>
@@ -1675,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1683,13 +1675,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="15" t="b">
         <v>1</v>
@@ -1704,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1712,13 +1704,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="15" t="b">
         <v>1</v>
@@ -1733,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1741,13 +1733,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="15" t="b">
         <v>1</v>
@@ -1762,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1770,13 +1762,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="15" t="b">
         <v>1</v>
@@ -1791,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1799,13 +1791,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="15" t="b">
         <v>1</v>
@@ -1828,13 +1820,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="15" t="b">
         <v>1</v>
@@ -1849,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1857,13 +1849,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="15" t="b">
         <v>1</v>
@@ -1878,7 +1870,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1886,13 +1878,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="15" t="b">
         <v>1</v>
@@ -1907,7 +1899,7 @@
         <v>11</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1915,13 +1907,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="15" t="b">
         <v>1</v>
@@ -1936,7 +1928,7 @@
         <v>11</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1944,13 +1936,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="15" t="b">
         <v>1</v>
@@ -1965,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1973,13 +1965,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="15" t="b">
         <v>0</v>
@@ -2002,13 +1994,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="15" t="b">
         <v>0</v>
@@ -2031,13 +2023,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" s="15" t="b">
         <v>0</v>
@@ -2060,13 +2052,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="15" t="b">
         <v>0</v>
@@ -2089,13 +2081,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="15" t="b">
         <v>0</v>
@@ -2118,13 +2110,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="15" t="b">
         <v>0</v>
@@ -2147,13 +2139,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="15" t="b">
         <v>0</v>
@@ -2176,13 +2168,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="15" t="b">
         <v>0</v>
@@ -2205,13 +2197,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="15" t="b">
         <v>0</v>
@@ -2234,13 +2226,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="E38" s="15" t="b">
         <v>0</v>
@@ -2263,13 +2255,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="15" t="b">
         <v>0</v>
@@ -2292,13 +2284,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="15" t="b">
         <v>0</v>
@@ -2321,13 +2313,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="15" t="b">
         <v>0</v>
@@ -2350,13 +2342,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="15" t="b">
         <v>0</v>
@@ -2379,13 +2371,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" s="15" t="b">
         <v>0</v>
@@ -2408,13 +2400,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="15" t="b">
         <v>0</v>
@@ -2437,13 +2429,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="15" t="b">
         <v>0</v>
@@ -2466,13 +2458,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="15" t="b">
         <v>0</v>
@@ -2495,13 +2487,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" s="15" t="b">
         <v>0</v>
@@ -2524,13 +2516,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="15" t="b">
         <v>0</v>
@@ -2553,13 +2545,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" s="15" t="b">
         <v>0</v>
@@ -2582,13 +2574,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="15" t="b">
         <v>0</v>
@@ -2611,13 +2603,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" s="15" t="b">
         <v>0</v>
@@ -2635,35 +2627,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="22"/>
-    </row>
-    <row r="53" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>13</v>
-      </c>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2673,7 +2785,10 @@
     <mergeCell ref="F2:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C51">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C55">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
